--- a/biology/Neurosciences/Potentiel_d'action/Potentiel_d'action.xlsx
+++ b/biology/Neurosciences/Potentiel_d'action/Potentiel_d'action.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Potentiel_d%27action</t>
+          <t>Potentiel_d'action</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le potentiel d'action, autrefois et encore parfois appelé influx nerveux, est un événement court durant lequel le potentiel électrique d'une cellule (notamment les neurones, mais aussi d'autres cellules excitables telles que les cellules musculaires, les cellules endocrines ou les cellules végétales[1] des tubes criblés du phloème[2]) augmente puis chute rapidement.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le potentiel d'action, autrefois et encore parfois appelé influx nerveux, est un événement court durant lequel le potentiel électrique d'une cellule (notamment les neurones, mais aussi d'autres cellules excitables telles que les cellules musculaires, les cellules endocrines ou les cellules végétales des tubes criblés du phloème) augmente puis chute rapidement.
 La membrane plasmique présente une perméabilité sélective (voir perméase), modulable par différents facteurs comme son degré de polarisation ou par des neurotransmetteurs, à l'égard de différents ions (en particulier, sodium Na+, potassium K+, chlore Cl− et calcium Ca2+).
 La différence de concentration ionique résultante détermine la valeur locale du potentiel transmembranaire.
 Au repos, il existe un potentiel transmembranaire d'environ −70 mV : c'est le potentiel de repos. Étant donné que la membrane mesure 7 nm d'épaisseur, cela correspond à un champ électrique de dix millions de volts par mètre.
@@ -503,7 +515,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Potentiel_d%27action</t>
+          <t>Potentiel_d'action</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,7 +533,9 @@
           <t>Mise en place</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La genèse du potentiel d'action a lieu au niveau du cône d'émergence, à la base du corps cellulaire du neurone (ou le péricaryon) qui fait la sommation des potentiels gradués provenant des synapses situées le long des dendrites et sur le corps cellulaire :
 si cette somme ne dépasse pas le seuil d'excitabilité du neurone (−55 mV en général), le message nerveux n'est pas relayé par l'axone ;
@@ -534,9 +548,43 @@
 de la perméabilité de la membrane aux ions potassium et sodium.
 Initiation du potentiel d'action :
 augmentation de la perméabilité de la membrane ;
-diffusion des ions sodium et potassium le long des gradients de concentration.
-Différentes étapes d'un potentiel d'action
-Au repos, les canaux de fuites sont les mêmes que ceux qui sont perméables au potassium :
+diffusion des ions sodium et potassium le long des gradients de concentration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Potentiel_d'action</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Potentiel_d%27action</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Mise en place</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Différentes étapes d'un potentiel d'action</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Au repos, les canaux de fuites sont les mêmes que ceux qui sont perméables au potassium :
 très peu de canaux sodiques ouverts ;
 potentiel de repos est proche du potentiel d'équilibre du potassium (−70 mV).
 1. Dépolarisation jusqu'au potentiel seuil (V &lt; V0) :
@@ -564,31 +612,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Potentiel_d%27action</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Potentiel_d'action</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Neurosciences/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Potentiel_d%27action</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Conduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsqu'un potentiel d'action apparaît à un endroit donné de l'axone, la portion voisine qui lui a donné naissance entre en période réfractaire, ce qui l'empêche d'être excitée à son tour. Cette période réfractaire est expliquée par la désensibilisation des canaux sodiques dépendant du voltage.
 En revanche la portion voisine qui n'a pas encore présenté de potentiel d'action commence à être excitée. Cette excitation provient de petits courants électriques très locaux qui s'établissent entre portion excitée et portion non encore excitée. De proche en proche, se créent donc les conditions de naissance d'un potentiel d'action à côté de la portion qui est en train de réaliser un potentiel d'action (propagation régénérative).
@@ -600,31 +650,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Potentiel_d%27action</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Potentiel_d'action</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Neurosciences/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Potentiel_d%27action</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Modulation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les potentiels d'action dans le système nerveux sont très souvent couplés de telle façon que ce n'est plus leur profil (amplitude, durée, etc.) qui importe mais les rythmes qu'ils suivent dans leurs émissions, leur fréquence, et le codage de l'information nerveuse se fait par cette fréquence.
 </t>
